--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1955666.609451281</v>
+        <v>-1958336.605006242</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377142</v>
+        <v>9823063.766377145</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739794</v>
+        <v>369.0685238739792</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815064</v>
+        <v>351.6075739815062</v>
       </c>
       <c r="D11" t="n">
-        <v>341.0177238311818</v>
+        <v>341.0177238311816</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827606</v>
+        <v>368.2650522827605</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2107279522103</v>
+        <v>393.2107279522101</v>
       </c>
       <c r="G11" t="n">
-        <v>265.0853777687487</v>
+        <v>397.2564078639521</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>280.9424465978191</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>27.91161198342465</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867466</v>
+        <v>95.52244399867452</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806337</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.0657828889679</v>
+        <v>229.1276348931563</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665524</v>
+        <v>372.5726208665523</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>166.166662392436</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>153.5815033091265</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.950155228711</v>
       </c>
       <c r="E13" t="n">
-        <v>132.768644857068</v>
+        <v>132.7686448570678</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.7557302334299</v>
       </c>
       <c r="G13" t="n">
-        <v>152.360490469527</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248196</v>
+        <v>22.52122460794721</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054616</v>
+        <v>75.26683488054601</v>
       </c>
       <c r="S13" t="n">
-        <v>51.11213258537985</v>
+        <v>176.1037075419406</v>
       </c>
       <c r="T13" t="n">
-        <v>205.883631486668</v>
+        <v>205.8836314866679</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161117</v>
+        <v>272.5465204161115</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343268</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470898</v>
+        <v>272.8576805470897</v>
       </c>
       <c r="X13" t="n">
-        <v>212.044337599536</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625936</v>
+        <v>204.9193355625935</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>369.0685238739792</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815064</v>
+        <v>351.6075739815062</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311819</v>
+        <v>341.0177238311816</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>368.2650522827605</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>393.2107279522101</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639523</v>
+        <v>397.2564078639521</v>
       </c>
       <c r="H14" t="n">
-        <v>235.2151165663168</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.5224439986747</v>
+        <v>95.52244399867452</v>
       </c>
       <c r="T14" t="n">
-        <v>190.252652350119</v>
+        <v>190.2526523501188</v>
       </c>
       <c r="U14" t="n">
-        <v>237.3298541694008</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806338</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>335.5756509279119</v>
+        <v>335.5756509279117</v>
       </c>
       <c r="X14" t="n">
-        <v>356.0657828889679</v>
+        <v>356.0657828889677</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.5726208665525</v>
+        <v>28.66022817395438</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>166.166662392436</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091267</v>
+        <v>153.5815033091265</v>
       </c>
       <c r="D16" t="n">
-        <v>134.9501552287112</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.768644857068</v>
+        <v>132.7686448570678</v>
       </c>
       <c r="F16" t="n">
-        <v>44.29819949626672</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.3604904695269</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248197</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.68710262033696</v>
+        <v>82.68710262033679</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.2668348805462</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>176.1037075419406</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8836314866681</v>
+        <v>205.8836314866679</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161118</v>
+        <v>272.5465204161115</v>
       </c>
       <c r="V16" t="n">
-        <v>238.4723255343269</v>
+        <v>238.4723255343267</v>
       </c>
       <c r="W16" t="n">
-        <v>272.8576805470899</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.0443375995358</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625937</v>
+        <v>156.7067048365912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553868</v>
+        <v>322.0933872553867</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629138</v>
+        <v>304.6324373629137</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0425872125892</v>
+        <v>255.2312787783393</v>
       </c>
       <c r="E17" t="n">
-        <v>282.4786072299221</v>
+        <v>321.2899156641679</v>
       </c>
       <c r="F17" t="n">
-        <v>346.2355913336177</v>
+        <v>346.2355913336175</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453597</v>
+        <v>350.2812712453596</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9673099792267</v>
+        <v>233.9673099792266</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.5473073800821</v>
+        <v>48.54730738008195</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315264</v>
+        <v>143.2775157315263</v>
       </c>
       <c r="U17" t="n">
-        <v>190.3547175508082</v>
+        <v>190.3547175508081</v>
       </c>
       <c r="V17" t="n">
-        <v>267.1118040620411</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W17" t="n">
-        <v>288.6005143093192</v>
+        <v>288.6005143093191</v>
       </c>
       <c r="X17" t="n">
-        <v>309.0906462703753</v>
+        <v>309.0906462703751</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479597</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247628</v>
+        <v>18.81721868247643</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738434</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6063666905341</v>
+        <v>106.6063666905339</v>
       </c>
       <c r="D19" t="n">
-        <v>87.9750186101186</v>
+        <v>87.97501861011845</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847541</v>
+        <v>85.79350823847527</v>
       </c>
       <c r="F19" t="n">
-        <v>84.78059361483749</v>
+        <v>84.78059361483734</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509345</v>
+        <v>105.3853538509343</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622702</v>
+        <v>84.11456050622688</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174435</v>
+        <v>35.71196600174421</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.29169826195358</v>
+        <v>28.29169826195344</v>
       </c>
       <c r="S19" t="n">
-        <v>129.1285709233481</v>
+        <v>129.128570923348</v>
       </c>
       <c r="T19" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680753</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5713837975191</v>
+        <v>225.571383797519</v>
       </c>
       <c r="V19" t="n">
-        <v>191.4971889157342</v>
+        <v>191.4971889157341</v>
       </c>
       <c r="W19" t="n">
-        <v>225.8825439284972</v>
+        <v>225.8825439284971</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0692009809434</v>
+        <v>165.0692009809433</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440009</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.0933872553868</v>
+        <v>283.2820788211372</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629138</v>
+        <v>304.6324373629137</v>
       </c>
       <c r="D20" t="n">
-        <v>294.0425872125892</v>
+        <v>294.0425872125891</v>
       </c>
       <c r="E20" t="n">
-        <v>321.289915664168</v>
+        <v>321.2899156641679</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336177</v>
+        <v>346.2355913336175</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453597</v>
+        <v>350.2812712453596</v>
       </c>
       <c r="H20" t="n">
-        <v>233.9673099792267</v>
+        <v>233.9673099792266</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.5473073800821</v>
+        <v>48.54730738008193</v>
       </c>
       <c r="T20" t="n">
-        <v>143.2775157315264</v>
+        <v>143.2775157315263</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3547175508082</v>
+        <v>190.3547175508081</v>
       </c>
       <c r="V20" t="n">
-        <v>267.1118040620411</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W20" t="n">
-        <v>288.6005143093192</v>
+        <v>288.6005143093191</v>
       </c>
       <c r="X20" t="n">
-        <v>270.2793378361285</v>
+        <v>309.0906462703751</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479597</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738434</v>
       </c>
       <c r="C22" t="n">
-        <v>106.6063666905341</v>
+        <v>106.6063666905339</v>
       </c>
       <c r="D22" t="n">
-        <v>87.9750186101186</v>
+        <v>87.97501861011845</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847541</v>
+        <v>85.79350823847527</v>
       </c>
       <c r="F22" t="n">
-        <v>84.78059361483749</v>
+        <v>84.78059361483734</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509345</v>
+        <v>105.3853538509343</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622702</v>
+        <v>84.11456050622688</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174435</v>
+        <v>35.71196600174421</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.29169826195358</v>
+        <v>28.29169826195344</v>
       </c>
       <c r="S22" t="n">
-        <v>129.1285709233481</v>
+        <v>129.128570923348</v>
       </c>
       <c r="T22" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680753</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5713837975191</v>
+        <v>225.571383797519</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4971889157342</v>
+        <v>191.4971889157341</v>
       </c>
       <c r="W22" t="n">
-        <v>225.8825439284972</v>
+        <v>225.8825439284971</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0692009809434</v>
+        <v>165.0692009809433</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440009</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0933872553868</v>
+        <v>322.0933872553867</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629138</v>
+        <v>304.6324373629137</v>
       </c>
       <c r="D23" t="n">
-        <v>294.0425872125892</v>
+        <v>294.0425872125891</v>
       </c>
       <c r="E23" t="n">
-        <v>321.289915664168</v>
+        <v>321.2899156641679</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2355913336177</v>
+        <v>346.2355913336175</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2812712453597</v>
+        <v>350.2812712453596</v>
       </c>
       <c r="H23" t="n">
-        <v>233.9673099792267</v>
+        <v>233.9673099792266</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.5473073800821</v>
+        <v>48.54730738008193</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315264</v>
+        <v>143.2775157315263</v>
       </c>
       <c r="U23" t="n">
-        <v>190.3547175508082</v>
+        <v>190.3547175508081</v>
       </c>
       <c r="V23" t="n">
-        <v>267.1118040620411</v>
+        <v>267.111804062041</v>
       </c>
       <c r="W23" t="n">
-        <v>288.6005143093192</v>
+        <v>288.6005143093191</v>
       </c>
       <c r="X23" t="n">
-        <v>309.0906462703753</v>
+        <v>309.0906462703751</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5974842479598</v>
+        <v>325.5974842479597</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.1915257738435</v>
+        <v>119.1915257738434</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6063666905341</v>
+        <v>106.6063666905339</v>
       </c>
       <c r="D25" t="n">
-        <v>87.9750186101186</v>
+        <v>87.97501861011845</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847541</v>
+        <v>85.79350823847527</v>
       </c>
       <c r="F25" t="n">
-        <v>84.78059361483749</v>
+        <v>84.78059361483734</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509345</v>
+        <v>105.3853538509343</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622702</v>
+        <v>84.11456050622688</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174435</v>
+        <v>35.71196600174421</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.29169826195358</v>
+        <v>28.29169826195344</v>
       </c>
       <c r="S25" t="n">
-        <v>129.1285709233481</v>
+        <v>129.128570923348</v>
       </c>
       <c r="T25" t="n">
-        <v>158.9084948680754</v>
+        <v>158.9084948680753</v>
       </c>
       <c r="U25" t="n">
-        <v>225.5713837975191</v>
+        <v>225.571383797519</v>
       </c>
       <c r="V25" t="n">
-        <v>191.4971889157342</v>
+        <v>191.4971889157341</v>
       </c>
       <c r="W25" t="n">
-        <v>225.8825439284972</v>
+        <v>225.8825439284971</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0692009809434</v>
+        <v>165.0692009809433</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.944198944001</v>
+        <v>157.9441989440009</v>
       </c>
     </row>
     <row r="26">
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3016,7 +3016,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335015</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797656</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1803.064092004313</v>
+        <v>2248.543979556279</v>
       </c>
       <c r="C11" t="n">
-        <v>1447.904926366428</v>
+        <v>1893.384813918394</v>
       </c>
       <c r="D11" t="n">
-        <v>1103.442579062204</v>
+        <v>1548.92246661417</v>
       </c>
       <c r="E11" t="n">
-        <v>731.4576777664857</v>
+        <v>1176.937565318452</v>
       </c>
       <c r="F11" t="n">
-        <v>334.2751242794044</v>
+        <v>779.7550118313711</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>378.4859129788943</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>94.70566389018812</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5054,7 +5054,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296685</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3229.118504438791</v>
+        <v>3229.118504438792</v>
       </c>
       <c r="T11" t="n">
-        <v>3229.118504438791</v>
+        <v>3229.118504438792</v>
       </c>
       <c r="U11" t="n">
-        <v>3229.118504438791</v>
+        <v>3229.118504438792</v>
       </c>
       <c r="V11" t="n">
-        <v>2911.858968397747</v>
+        <v>3229.118504438792</v>
       </c>
       <c r="W11" t="n">
-        <v>2911.858968397747</v>
+        <v>3229.118504438792</v>
       </c>
       <c r="X11" t="n">
-        <v>2552.196561439193</v>
+        <v>2997.676448991159</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.860580765908</v>
+        <v>2621.340468317874</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5142,28 +5142,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.9351795144203</v>
+        <v>647.9032863678228</v>
       </c>
       <c r="C13" t="n">
-        <v>486.9351795144203</v>
+        <v>492.7704547424426</v>
       </c>
       <c r="D13" t="n">
-        <v>486.9351795144203</v>
+        <v>356.4571666326334</v>
       </c>
       <c r="E13" t="n">
-        <v>352.8254372345537</v>
+        <v>222.3474243527669</v>
       </c>
       <c r="F13" t="n">
-        <v>352.8254372345537</v>
+        <v>89.26082815738262</v>
       </c>
       <c r="G13" t="n">
-        <v>198.9259519117991</v>
+        <v>89.26082815738262</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>125.163413490725</v>
+        <v>125.1634134907253</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512074</v>
+        <v>342.6792610512079</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113097</v>
+        <v>672.7677241113103</v>
       </c>
       <c r="M13" t="n">
         <v>1030.453434322465</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639936</v>
+        <v>1385.390475639937</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171955</v>
+        <v>1698.248739171956</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.384904217221</v>
+        <v>1944.384904217222</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981341</v>
+        <v>2035.523864981343</v>
       </c>
       <c r="R13" t="n">
-        <v>1959.496759041396</v>
+        <v>1959.496759041397</v>
       </c>
       <c r="S13" t="n">
-        <v>1907.868342288487</v>
+        <v>1781.61422617075</v>
       </c>
       <c r="T13" t="n">
-        <v>1699.905078160539</v>
+        <v>1573.650962042803</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.605562588709</v>
+        <v>1298.351446470974</v>
       </c>
       <c r="V13" t="n">
-        <v>1183.724425685349</v>
+        <v>1298.351446470974</v>
       </c>
       <c r="W13" t="n">
-        <v>908.1106069509148</v>
+        <v>1022.737627736539</v>
       </c>
       <c r="X13" t="n">
-        <v>693.9244073554239</v>
+        <v>1022.737627736539</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.9351795144203</v>
+        <v>815.748399895536</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1404.993755061434</v>
+        <v>1936.570183009568</v>
       </c>
       <c r="C14" t="n">
-        <v>1049.834589423548</v>
+        <v>1581.411017371683</v>
       </c>
       <c r="D14" t="n">
-        <v>705.372242119324</v>
+        <v>1236.948670067459</v>
       </c>
       <c r="E14" t="n">
-        <v>705.372242119324</v>
+        <v>864.9637687717413</v>
       </c>
       <c r="F14" t="n">
-        <v>705.372242119324</v>
+        <v>467.7812152846603</v>
       </c>
       <c r="G14" t="n">
-        <v>304.1031432668468</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,52 +5276,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3229.118504438793</v>
+        <v>3229.118504438792</v>
       </c>
       <c r="T14" t="n">
         <v>3036.944108125541</v>
       </c>
       <c r="U14" t="n">
-        <v>2797.216982701904</v>
+        <v>3036.944108125541</v>
       </c>
       <c r="V14" t="n">
-        <v>2479.95744666086</v>
+        <v>3036.944108125541</v>
       </c>
       <c r="W14" t="n">
-        <v>2140.992142693272</v>
+        <v>2697.978804157953</v>
       </c>
       <c r="X14" t="n">
-        <v>1781.329735734719</v>
+        <v>2338.3163971994</v>
       </c>
       <c r="Y14" t="n">
-        <v>1404.993755061434</v>
+        <v>2309.366671771163</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.7497958628192</v>
+        <v>593.1765015393129</v>
       </c>
       <c r="C16" t="n">
-        <v>597.6169642374387</v>
+        <v>438.0436699139326</v>
       </c>
       <c r="D16" t="n">
-        <v>461.3036761276293</v>
+        <v>438.0436699139326</v>
       </c>
       <c r="E16" t="n">
-        <v>327.1939338477625</v>
+        <v>303.9339276340661</v>
       </c>
       <c r="F16" t="n">
-        <v>282.4482777909275</v>
+        <v>303.9339276340661</v>
       </c>
       <c r="G16" t="n">
-        <v>282.4482777909275</v>
+        <v>150.0344423113115</v>
       </c>
       <c r="H16" t="n">
-        <v>150.0344423113117</v>
+        <v>150.0344423113115</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>125.1634134907251</v>
+        <v>125.1634134907253</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512076</v>
+        <v>342.6792610512079</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113097</v>
+        <v>672.7677241113103</v>
       </c>
       <c r="M16" t="n">
         <v>1030.453434322465</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639935</v>
+        <v>1385.390475639937</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171955</v>
+        <v>1698.248739171956</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.38490421722</v>
+        <v>1944.384904217222</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.523864981341</v>
+        <v>2035.523864981343</v>
       </c>
       <c r="R16" t="n">
-        <v>1959.496759041395</v>
+        <v>2035.523864981343</v>
       </c>
       <c r="S16" t="n">
-        <v>1959.496759041395</v>
+        <v>1857.641332110696</v>
       </c>
       <c r="T16" t="n">
-        <v>1751.533494913448</v>
+        <v>1649.678067982748</v>
       </c>
       <c r="U16" t="n">
-        <v>1476.233979341618</v>
+        <v>1374.378552410919</v>
       </c>
       <c r="V16" t="n">
-        <v>1235.352842438257</v>
+        <v>1133.497415507558</v>
       </c>
       <c r="W16" t="n">
-        <v>959.7390237038228</v>
+        <v>1133.497415507558</v>
       </c>
       <c r="X16" t="n">
-        <v>959.7390237038228</v>
+        <v>919.3112159120677</v>
       </c>
       <c r="Y16" t="n">
-        <v>752.7497958628192</v>
+        <v>761.021615067026</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1906.340210162626</v>
+        <v>1906.340210162621</v>
       </c>
       <c r="C17" t="n">
-        <v>1598.630677472814</v>
+        <v>1598.630677472809</v>
       </c>
       <c r="D17" t="n">
-        <v>1301.617963116663</v>
+        <v>1340.821304969436</v>
       </c>
       <c r="E17" t="n">
-        <v>1016.286036621792</v>
+        <v>1016.286036621791</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827843</v>
+        <v>666.5531160827837</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783805</v>
+        <v>312.7336501783802</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774746</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774746</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="J17" t="n">
-        <v>372.944948219294</v>
+        <v>265.2821649967727</v>
       </c>
       <c r="K17" t="n">
-        <v>706.7643219091403</v>
+        <v>920.0054971320722</v>
       </c>
       <c r="L17" t="n">
-        <v>1157.798535157549</v>
+        <v>1371.039710380481</v>
       </c>
       <c r="M17" t="n">
-        <v>1691.330439829473</v>
+        <v>2003.263363605332</v>
       </c>
       <c r="N17" t="n">
-        <v>2238.109256888255</v>
+        <v>2550.042180664114</v>
       </c>
       <c r="O17" t="n">
-        <v>3118.07390721771</v>
+        <v>3053.014651543451</v>
       </c>
       <c r="P17" t="n">
-        <v>3512.848273574888</v>
+        <v>3447.789017900629</v>
       </c>
       <c r="Q17" t="n">
-        <v>3761.13463533057</v>
+        <v>3696.075379656311</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.151701887373</v>
+        <v>3820.151701887366</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.114017665068</v>
+        <v>3771.114017665061</v>
       </c>
       <c r="T17" t="n">
-        <v>3626.38925429989</v>
+        <v>3626.389254299883</v>
       </c>
       <c r="U17" t="n">
-        <v>3434.111761824326</v>
+        <v>3434.111761824319</v>
       </c>
       <c r="V17" t="n">
-        <v>3164.301858731355</v>
+        <v>3164.301858731349</v>
       </c>
       <c r="W17" t="n">
-        <v>2872.78618771184</v>
+        <v>2872.786187711834</v>
       </c>
       <c r="X17" t="n">
-        <v>2560.57341370136</v>
+        <v>2560.573413701354</v>
       </c>
       <c r="Y17" t="n">
-        <v>2231.687065976148</v>
+        <v>2231.687065976143</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>95.41032563620836</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774746</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="J18" t="n">
-        <v>170.0803035283647</v>
+        <v>170.0803035283646</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3445025087118</v>
+        <v>408.3445025087117</v>
       </c>
       <c r="L18" t="n">
         <v>775.042662821377</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.7337082931732</v>
+        <v>672.733708293172</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158661</v>
+        <v>565.0505096158649</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541301</v>
+        <v>476.1868544541292</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223367</v>
+        <v>389.526745122336</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750261</v>
+        <v>303.8897818750255</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003448</v>
+        <v>197.4399295003444</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688024</v>
+        <v>112.4757269688021</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774746</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="J19" t="n">
-        <v>121.525666484683</v>
+        <v>121.5256664846829</v>
       </c>
       <c r="K19" t="n">
-        <v>356.6342108843632</v>
+        <v>325.5128494335592</v>
       </c>
       <c r="L19" t="n">
-        <v>733.2280591968721</v>
+        <v>642.0726478820552</v>
       </c>
       <c r="M19" t="n">
-        <v>1077.385104796421</v>
+        <v>1046.263743345617</v>
       </c>
       <c r="N19" t="n">
-        <v>1478.827531366298</v>
+        <v>1418.793481502283</v>
       </c>
       <c r="O19" t="n">
-        <v>1778.157130286712</v>
+        <v>1718.123080422697</v>
       </c>
       <c r="P19" t="n">
-        <v>2010.764630720371</v>
+        <v>1950.730580856356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872886</v>
+        <v>2088.374926872883</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.797453881014</v>
+        <v>2059.797453881011</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.36455395844</v>
+        <v>1929.364553958437</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778566</v>
+        <v>1768.850922778563</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.001040154809</v>
+        <v>1541.001040154807</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.569536199522</v>
+        <v>1347.56953619952</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.405350413161</v>
+        <v>1119.405350413159</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657435</v>
+        <v>952.6687837657419</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728132</v>
+        <v>793.1291888728117</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1945.543552015399</v>
+        <v>1945.543552015398</v>
       </c>
       <c r="C20" t="n">
-        <v>1637.834019325588</v>
+        <v>1637.834019325586</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.821304969437</v>
+        <v>1340.821304969436</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.286036621792</v>
+        <v>1016.286036621791</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827845</v>
+        <v>666.5531160827837</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783805</v>
+        <v>312.7336501783802</v>
       </c>
       <c r="H20" t="n">
-        <v>76.40303403774745</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="I20" t="n">
-        <v>76.40303403774745</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2821649967728</v>
+        <v>265.2821649967727</v>
       </c>
       <c r="K20" t="n">
-        <v>765.1757802694895</v>
+        <v>599.1015386866191</v>
       </c>
       <c r="L20" t="n">
-        <v>1216.209993517898</v>
+        <v>1050.135751935028</v>
       </c>
       <c r="M20" t="n">
-        <v>1749.741898189822</v>
+        <v>1995.623298152151</v>
       </c>
       <c r="N20" t="n">
-        <v>2296.520715248605</v>
+        <v>2615.101436338367</v>
       </c>
       <c r="O20" t="n">
-        <v>2799.493186127941</v>
+        <v>3118.073907217703</v>
       </c>
       <c r="P20" t="n">
-        <v>3512.848273574887</v>
+        <v>3512.848273574881</v>
       </c>
       <c r="Q20" t="n">
-        <v>3761.134635330569</v>
+        <v>3761.134635330563</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.151701887372</v>
+        <v>3820.151701887366</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.114017665067</v>
+        <v>3771.114017665061</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.389254299889</v>
+        <v>3626.389254299883</v>
       </c>
       <c r="U20" t="n">
-        <v>3434.111761824325</v>
+        <v>3434.111761824319</v>
       </c>
       <c r="V20" t="n">
-        <v>3164.301858731354</v>
+        <v>3164.301858731349</v>
       </c>
       <c r="W20" t="n">
-        <v>2872.786187711839</v>
+        <v>2872.786187711834</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.776755554134</v>
+        <v>2560.573413701354</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.890407828922</v>
+        <v>2231.687065976143</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4347720866728</v>
+        <v>951.4347720866725</v>
       </c>
       <c r="C21" t="n">
-        <v>776.9817428055458</v>
+        <v>776.9817428055455</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0473331442945</v>
+        <v>628.0473331442943</v>
       </c>
       <c r="E21" t="n">
-        <v>468.8098781388389</v>
+        <v>468.8098781388388</v>
       </c>
       <c r="F21" t="n">
-        <v>322.2753201657239</v>
+        <v>322.2753201657238</v>
       </c>
       <c r="G21" t="n">
-        <v>185.912219998342</v>
+        <v>185.9122199983419</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620951</v>
+        <v>95.41032563620939</v>
       </c>
       <c r="I21" t="n">
-        <v>76.40303403774745</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="J21" t="n">
-        <v>170.0803035283647</v>
+        <v>170.0803035283646</v>
       </c>
       <c r="K21" t="n">
-        <v>408.3445025087118</v>
+        <v>408.3445025087117</v>
       </c>
       <c r="L21" t="n">
         <v>775.042662821377</v>
@@ -5862,7 +5862,7 @@
         <v>2252.719219902756</v>
       </c>
       <c r="U21" t="n">
-        <v>2024.651373037172</v>
+        <v>2024.651373037171</v>
       </c>
       <c r="V21" t="n">
         <v>1789.499264805429</v>
@@ -5871,7 +5871,7 @@
         <v>1535.261908077227</v>
       </c>
       <c r="X21" t="n">
-        <v>1327.410407871695</v>
+        <v>1327.410407871694</v>
       </c>
       <c r="Y21" t="n">
         <v>1119.650109106741</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.7337082931732</v>
+        <v>672.733708293172</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158661</v>
+        <v>565.0505096158649</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541301</v>
+        <v>476.1868544541292</v>
       </c>
       <c r="E22" t="n">
-        <v>389.5267451223367</v>
+        <v>389.526745122336</v>
       </c>
       <c r="F22" t="n">
-        <v>303.8897818750261</v>
+        <v>303.8897818750255</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4399295003448</v>
+        <v>197.4399295003444</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688023</v>
+        <v>112.4757269688021</v>
       </c>
       <c r="I22" t="n">
-        <v>76.40303403774745</v>
+        <v>76.40303403774732</v>
       </c>
       <c r="J22" t="n">
-        <v>121.525666484683</v>
+        <v>121.5256664846829</v>
       </c>
       <c r="K22" t="n">
-        <v>325.5128494335593</v>
+        <v>385.5468992975721</v>
       </c>
       <c r="L22" t="n">
-        <v>673.1940093328592</v>
+        <v>702.1066977460682</v>
       </c>
       <c r="M22" t="n">
-        <v>1077.385104796421</v>
+        <v>1106.29779320963</v>
       </c>
       <c r="N22" t="n">
-        <v>1478.827531366298</v>
+        <v>1447.706169915495</v>
       </c>
       <c r="O22" t="n">
-        <v>1778.157130286712</v>
+        <v>1747.035768835908</v>
       </c>
       <c r="P22" t="n">
-        <v>2010.764630720371</v>
+        <v>2010.764630720369</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872886</v>
+        <v>2088.374926872883</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.797453881014</v>
+        <v>2059.797453881011</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.36455395844</v>
+        <v>1929.364553958437</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778566</v>
+        <v>1768.850922778563</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.001040154809</v>
+        <v>1541.001040154807</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.569536199522</v>
+        <v>1347.56953619952</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.405350413161</v>
+        <v>1119.405350413159</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657435</v>
+        <v>952.6687837657419</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1291888728132</v>
+        <v>793.1291888728117</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216476</v>
+        <v>1946.343620216474</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526664</v>
+        <v>1638.634087526663</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170513</v>
+        <v>1341.621373170512</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.086104822869</v>
+        <v>1017.086104822868</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838611</v>
+        <v>667.3531842838603</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5337183794575</v>
+        <v>313.5337183794574</v>
       </c>
       <c r="H23" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="I23" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="J23" t="n">
-        <v>433.4878822182029</v>
+        <v>266.0822331978498</v>
       </c>
       <c r="K23" t="n">
-        <v>767.3072559080492</v>
+        <v>740.1199346490855</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.341469156458</v>
+        <v>1191.154147897494</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.873373828382</v>
+        <v>1724.686052569419</v>
       </c>
       <c r="N23" t="n">
-        <v>2298.652190887165</v>
+        <v>2271.464869628201</v>
       </c>
       <c r="O23" t="n">
-        <v>2839.496596181792</v>
+        <v>2774.437340507538</v>
       </c>
       <c r="P23" t="n">
-        <v>3552.851683628738</v>
+        <v>3487.792427954483</v>
       </c>
       <c r="Q23" t="n">
-        <v>3801.13804538442</v>
+        <v>3736.078789710165</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.155111941222</v>
+        <v>3860.155111941221</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.117427718917</v>
+        <v>3811.117427718915</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353739</v>
+        <v>3666.392664353737</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878176</v>
+        <v>3474.115171878173</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785205</v>
+        <v>3204.305268785203</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765691</v>
+        <v>2912.789597765688</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755211</v>
+        <v>2600.576823755208</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029999</v>
+        <v>2271.690476029996</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877498</v>
+        <v>952.2348402877485</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066228</v>
+        <v>777.7818110066215</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453715</v>
+        <v>628.8474013453703</v>
       </c>
       <c r="E24" t="n">
-        <v>469.609946339916</v>
+        <v>469.6099463399148</v>
       </c>
       <c r="F24" t="n">
-        <v>323.0753883668009</v>
+        <v>323.0753883667998</v>
       </c>
       <c r="G24" t="n">
-        <v>186.712288199419</v>
+        <v>186.7122881994179</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728652</v>
+        <v>96.21039383728537</v>
       </c>
       <c r="I24" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="J24" t="n">
         <v>170.8803717294417</v>
@@ -6090,28 +6090,28 @@
         <v>2575.744528339981</v>
       </c>
       <c r="R24" t="n">
-        <v>2575.600174932497</v>
+        <v>2575.600174932496</v>
       </c>
       <c r="S24" t="n">
-        <v>2446.162288425977</v>
+        <v>2446.162288425976</v>
       </c>
       <c r="T24" t="n">
-        <v>2253.519288103833</v>
+        <v>2253.519288103832</v>
       </c>
       <c r="U24" t="n">
-        <v>2025.451441238249</v>
+        <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
-        <v>1790.299333006506</v>
+        <v>1790.299333006505</v>
       </c>
       <c r="W24" t="n">
-        <v>1536.061976278304</v>
+        <v>1536.061976278303</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072772</v>
+        <v>1328.21047607277</v>
       </c>
       <c r="Y24" t="n">
-        <v>1120.450177307818</v>
+        <v>1120.450177307817</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.5337764942502</v>
+        <v>673.5337764942491</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169431</v>
+        <v>565.8505778169421</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9869226552071</v>
+        <v>476.9869226552063</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3268133234137</v>
+        <v>390.3268133234131</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6898500761031</v>
+        <v>304.6898500761026</v>
       </c>
       <c r="G25" t="n">
-        <v>198.2399977014218</v>
+        <v>198.2399977014215</v>
       </c>
       <c r="H25" t="n">
-        <v>113.2757951698794</v>
+        <v>113.2757951698792</v>
       </c>
       <c r="I25" t="n">
-        <v>77.20310223882446</v>
+        <v>77.20310223882441</v>
       </c>
       <c r="J25" t="n">
-        <v>182.3597845497728</v>
+        <v>182.3597845497729</v>
       </c>
       <c r="K25" t="n">
-        <v>417.4683289494528</v>
+        <v>386.3469674986492</v>
       </c>
       <c r="L25" t="n">
-        <v>734.0281273979489</v>
+        <v>702.9067659471453</v>
       </c>
       <c r="M25" t="n">
-        <v>1078.185172997498</v>
+        <v>1047.063811546694</v>
       </c>
       <c r="N25" t="n">
-        <v>1419.593549703362</v>
+        <v>1419.593549703361</v>
       </c>
       <c r="O25" t="n">
-        <v>1718.923148623776</v>
+        <v>1778.957198487787</v>
       </c>
       <c r="P25" t="n">
-        <v>2011.564698921448</v>
+        <v>2011.564698921446</v>
       </c>
       <c r="Q25" t="n">
-        <v>2089.174995073963</v>
+        <v>2089.174995073961</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.597522082091</v>
+        <v>2060.597522082089</v>
       </c>
       <c r="S25" t="n">
-        <v>1930.164622159517</v>
+        <v>1930.164622159515</v>
       </c>
       <c r="T25" t="n">
-        <v>1769.650990979643</v>
+        <v>1769.650990979641</v>
       </c>
       <c r="U25" t="n">
-        <v>1541.801108355886</v>
+        <v>1541.801108355884</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.369604400599</v>
+        <v>1348.369604400597</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.205418614238</v>
+        <v>1120.205418614237</v>
       </c>
       <c r="X25" t="n">
-        <v>953.4688519668205</v>
+        <v>953.4688519668191</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9292570738902</v>
+        <v>793.9292570738888</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6236,16 +6236,16 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2156.722678745572</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6257,7 +6257,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,13 +6412,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6470,19 +6470,19 @@
         <v>1054.879634793969</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N29" t="n">
-        <v>2410.244144161088</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O29" t="n">
-        <v>3290.208794490542</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P29" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6564,25 +6564,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697997</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.614500289966</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257036</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6655,16 +6655,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151966</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>1092.155029011367</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1543.189242259775</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2076.7211469317</v>
+        <v>2305.516762226677</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6801,25 +6801,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N35" t="n">
-        <v>2735.569460712893</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O35" t="n">
-        <v>3238.54193159223</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q35" t="n">
         <v>3998.328778277655</v>
@@ -6971,7 +6971,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668915</v>
@@ -7038,25 +7038,25 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S36" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T36" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U36" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V36" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W36" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X36" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
         <v>1124.393991965682</v>
@@ -7096,10 +7096,10 @@
         <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7123,16 +7123,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467806</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037427</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.684944709351</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768133</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.43623264747</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094416</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456137</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644868</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032356</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977798</v>
+        <v>473.55376099778</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246651</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572836</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951511</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7269,16 +7269,16 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T39" t="n">
         <v>2257.463102761697</v>
@@ -7290,10 +7290,10 @@
         <v>1794.24314766437</v>
       </c>
       <c r="W39" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965682</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257035</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415467</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.02296113027</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,10 +7397,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668915</v>
@@ -7412,28 +7412,28 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>842.4067862271445</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N41" t="n">
-        <v>2475.30339983534</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309626</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
@@ -7509,28 +7509,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U42" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
         <v>1124.393991965682</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E43" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7576,7 +7576,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7585,7 +7585,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7603,7 +7603,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
         <v>1262.182746297367</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7631,52 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
         <v>698.9037015467791</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M44" t="n">
-        <v>1807.484051384559</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N44" t="n">
-        <v>2787.236323611206</v>
+        <v>2580.20875468258</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490542</v>
+        <v>3083.181225561917</v>
       </c>
       <c r="P44" t="n">
-        <v>3684.98316084772</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863832</v>
@@ -7691,7 +7691,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873064</v>
@@ -7737,16 +7737,16 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R45" t="n">
         <v>2579.543989590362</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643393</v>
@@ -7801,16 +7801,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7819,19 +7819,19 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570351</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>108.7502860833547</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>99.68863490194622</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.161737372967764e-12</v>
+        <v>1.019628825815744e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>167.7517591746164</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>416.116809641615</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>73.43365770447849</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>141.6346745064538</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>38.25447920736428</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>21.74982042514796</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>8.970374914504418</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>402.5500016878934</v>
       </c>
       <c r="N29" t="n">
-        <v>277.8321087236482</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,10 +10355,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>400.2032972882125</v>
       </c>
       <c r="N32" t="n">
-        <v>231.1066821161371</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>187.8883066283067</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>117.9051702753177</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>124.5185911550073</v>
+        <v>402.5500016878923</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8.633094239485217e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>240.9710754359431</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>343.5485285966306</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>52.18875040233547</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>274.8351763665443</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>132.1710300952035</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978193</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.91161198342479</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.252652350119</v>
+        <v>190.2526523501188</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694008</v>
+        <v>237.3298541694006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.0869406806336</v>
       </c>
       <c r="W11" t="n">
-        <v>335.5756509279119</v>
+        <v>335.5756509279117</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>126.9381479958114</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.1666623924361</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091266</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>134.9501552287112</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7557302334301</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>152.3604904695269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>108.5684725168723</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033693</v>
+        <v>82.68710262033679</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>124.9915749565609</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>238.4723255343267</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>212.0443375995358</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739795</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827607</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522103</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>45.7273300315026</v>
+        <v>280.9424465978191</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342483</v>
+        <v>27.91161198342465</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.3298541694006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>314.0869406806336</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>343.9123926925979</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924362</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>134.950155228711</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>87.4575307371634</v>
+        <v>131.7557302334299</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3604904695271</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0896971248195</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>75.26683488054601</v>
       </c>
       <c r="S16" t="n">
-        <v>176.1037075419408</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.8576805470897</v>
       </c>
       <c r="X16" t="n">
-        <v>212.044337599536</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>48.21263072600223</v>
       </c>
     </row>
     <row r="17">
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>38.81130843424972</v>
       </c>
       <c r="E17" t="n">
-        <v>38.81130843424589</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>38.81130843424945</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>38.81130843424668</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.531752999057062e-13</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1138346.57228305</v>
+        <v>1138346.572283051</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1342386.402349708</v>
+        <v>1342386.402349709</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1342386.402349709</v>
+        <v>1342386.402349708</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>122891.4508075558</v>
+      </c>
+      <c r="C2" t="n">
         <v>122891.4508075557</v>
       </c>
-      <c r="C2" t="n">
-        <v>122891.4508075558</v>
-      </c>
       <c r="D2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="E2" t="n">
         <v>105919.4396974572</v>
       </c>
       <c r="F2" t="n">
-        <v>105919.4396974571</v>
+        <v>105919.4396974572</v>
       </c>
       <c r="G2" t="n">
         <v>122692.8584569376</v>
@@ -26344,13 +26344,13 @@
         <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
+        <v>123156.2654796424</v>
+      </c>
+      <c r="N2" t="n">
         <v>123156.2654796423</v>
       </c>
-      <c r="N2" t="n">
-        <v>123156.2654796424</v>
-      </c>
       <c r="O2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796424</v>
@@ -26375,34 +26375,34 @@
         <v>1134700.308569464</v>
       </c>
       <c r="F3" t="n">
-        <v>7.913786248536781e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388681</v>
+        <v>71467.01119388637</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701232496</v>
+        <v>2659.436701232769</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927941</v>
+        <v>12898.44302927953</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
       </c>
       <c r="N3" t="n">
-        <v>1.949148327184957e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870728</v>
+        <v>29753.24015870698</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>22969.88759302206</v>
+        <v>22969.8875930222</v>
       </c>
       <c r="F4" t="n">
-        <v>22969.88759302198</v>
+        <v>22969.8875930222</v>
       </c>
       <c r="G4" t="n">
-        <v>78706.21105803647</v>
+        <v>78706.21105803637</v>
       </c>
       <c r="H4" t="n">
-        <v>78706.21105803642</v>
+        <v>78706.21105803638</v>
       </c>
       <c r="I4" t="n">
-        <v>79814.17669746622</v>
+        <v>79814.17669746629</v>
       </c>
       <c r="J4" t="n">
         <v>76652.56781120106</v>
       </c>
       <c r="K4" t="n">
+        <v>76652.56781120106</v>
+      </c>
+      <c r="L4" t="n">
         <v>76652.56781120109</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>76652.56781120108</v>
+      </c>
+      <c r="N4" t="n">
+        <v>76652.56781120104</v>
+      </c>
+      <c r="O4" t="n">
         <v>76652.56781120106</v>
-      </c>
-      <c r="M4" t="n">
-        <v>76652.56781120106</v>
-      </c>
-      <c r="N4" t="n">
-        <v>76652.56781120108</v>
-      </c>
-      <c r="O4" t="n">
-        <v>76652.56781120109</v>
       </c>
       <c r="P4" t="n">
         <v>76652.56781120109</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.17016263885</v>
+        <v>75455.17016263888</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263887</v>
+        <v>75455.17016263888</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325599</v>
+        <v>86921.4203032559</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325599</v>
+        <v>86921.4203032559</v>
       </c>
       <c r="I5" t="n">
-        <v>87529.47213607452</v>
+        <v>87529.4721360745</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,16 +26497,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-330883.9180819755</v>
+        <v>-330888.3316598436</v>
       </c>
       <c r="C6" t="n">
-        <v>-330883.9180819755</v>
+        <v>-330888.3316598436</v>
       </c>
       <c r="D6" t="n">
-        <v>-330883.9180819754</v>
+        <v>-330888.3316598436</v>
       </c>
       <c r="E6" t="n">
-        <v>-1127205.926627668</v>
+        <v>-1127493.207057371</v>
       </c>
       <c r="F6" t="n">
-        <v>7494.381941796193</v>
+        <v>7207.101512093077</v>
       </c>
       <c r="G6" t="n">
-        <v>-114401.7840982417</v>
+        <v>-114409.5075486195</v>
       </c>
       <c r="H6" t="n">
-        <v>-42934.7729043548</v>
+        <v>-42942.4963547331</v>
       </c>
       <c r="I6" t="n">
-        <v>-46846.82005513069</v>
+        <v>-46846.82005513104</v>
       </c>
       <c r="J6" t="n">
-        <v>-55772.68703564418</v>
+        <v>-55772.68703564428</v>
       </c>
       <c r="K6" t="n">
-        <v>-42874.24400636475</v>
+        <v>-42874.24400636477</v>
       </c>
       <c r="L6" t="n">
-        <v>-80454.35330123888</v>
+        <v>-80454.35330123882</v>
       </c>
       <c r="M6" t="n">
-        <v>-250062.8122984378</v>
+        <v>-250062.8122984377</v>
       </c>
       <c r="N6" t="n">
-        <v>-42874.24400636498</v>
+        <v>-42874.24400636488</v>
       </c>
       <c r="O6" t="n">
-        <v>-72627.48416507209</v>
+        <v>-72627.48416507184</v>
       </c>
       <c r="P6" t="n">
-        <v>-42874.24400636485</v>
+        <v>-42874.2440063648</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718432</v>
+        <v>955.0379254718415</v>
       </c>
       <c r="H4" t="n">
-        <v>955.037925471843</v>
+        <v>955.0379254718415</v>
       </c>
       <c r="I4" t="n">
-        <v>965.0387779853056</v>
+        <v>965.0387779853052</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26817,19 +26817,19 @@
         <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,37 +27018,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>123.6364700695489</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.00085251346366</v>
+      </c>
+      <c r="J4" t="n">
+        <v>49.29768322330926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>123.6364700695503</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.00085251346263</v>
-      </c>
-      <c r="J4" t="n">
-        <v>49.29768322330881</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="N4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.63647006955</v>
+        <v>123.6364700695487</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859264</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695503</v>
+        <v>123.6364700695489</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950119</v>
+        <v>13.66531778950133</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950112</v>
+        <v>13.66531778950133</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>31.43571863717563</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>60.64045440809376</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="N19" t="n">
-        <v>60.64045440809376</v>
+        <v>31.43571863717318</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="L22" t="n">
-        <v>31.43571863717557</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="N22" t="n">
-        <v>60.64045440809376</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>31.43571863717312</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="J25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="K25" t="n">
-        <v>31.43571863717537</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,40 +29229,40 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>31.43571863717364</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="P25" t="n">
-        <v>60.64045440809376</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809376</v>
+        <v>60.6404544080939</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30183,7 +30183,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
         <v>46.97513661859257</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859142</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256738</v>
+        <v>59.24373440256753</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7129773338207</v>
+        <v>219.7129773338208</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596993</v>
+        <v>333.4226899596994</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829849</v>
+        <v>361.2986971829851</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570412</v>
+        <v>358.5222639570413</v>
       </c>
       <c r="O13" t="n">
-        <v>316.0184480121409</v>
+        <v>316.0184480121411</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346116</v>
+        <v>248.6223889346117</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.05955632739482</v>
+        <v>92.05955632739496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256734</v>
+        <v>59.24373440256753</v>
       </c>
       <c r="K16" t="n">
-        <v>219.7129773338207</v>
+        <v>219.7129773338208</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596993</v>
+        <v>333.4226899596994</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829849</v>
+        <v>361.2986971829851</v>
       </c>
       <c r="N16" t="n">
-        <v>358.5222639570412</v>
+        <v>358.5222639570414</v>
       </c>
       <c r="O16" t="n">
-        <v>316.0184480121409</v>
+        <v>316.0184480121411</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346116</v>
+        <v>248.6223889346117</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739477</v>
+        <v>92.05955632739496</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>299.5372870520672</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>638.6097507321728</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36042,16 +36042,16 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>237.4833781814951</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>380.3978265782918</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>408.2738338015777</v>
       </c>
       <c r="N19" t="n">
-        <v>405.4974005756338</v>
+        <v>376.2926648047132</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>139.0346929459875</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>504.9430457300168</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>955.0379254718415</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>625.7354931173898</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037194</v>
@@ -36279,22 +36279,22 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>266.6881139524134</v>
       </c>
       <c r="L22" t="n">
-        <v>351.1930908073737</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>408.2738338015776</v>
+        <v>408.2738338015777</v>
       </c>
       <c r="N22" t="n">
-        <v>405.4974005756338</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>266.3927897822835</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>478.8259610618542</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>546.3074800955833</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.21887102116</v>
+        <v>106.2188710211601</v>
       </c>
       <c r="K25" t="n">
-        <v>237.4833781814949</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,13 +36525,13 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>376.2926648047137</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>362.9935846307336</v>
       </c>
       <c r="P25" t="n">
-        <v>295.5975255532042</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>574.0516558380592</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>517.0233758027234</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>941.47111751812</v>
       </c>
       <c r="N29" t="n">
-        <v>830.1339441365594</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265651</v>
@@ -37075,10 +37075,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>939.1244131184391</v>
       </c>
       <c r="N32" t="n">
-        <v>783.4085175290484</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>726.8094224585333</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>516.6671564946894</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>580.1087055473392</v>
+        <v>858.1401160802245</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,19 +37780,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>578.1623619913435</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>895.8503640095419</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38023,22 +38023,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>591.109866232562</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>673.597162585916</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412311</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
